--- a/data/Subset1_WithDialogActs/MOLLY MCNINch pt 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/MOLLY MCNINch pt 4.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1851,12 +1851,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1927,12 +1927,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2577,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2767,12 +2767,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
